--- a/Schematic/bom.xlsx
+++ b/Schematic/bom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vitaliy\Git\WemosRemote\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vitaliy\Git\Web-Remote\Schematic\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>Category</t>
   </si>
@@ -53,9 +53,6 @@
     <t>0805_CAP</t>
   </si>
   <si>
-    <t>C3,C5</t>
-  </si>
-  <si>
     <t>0.1uF</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>CAPMP3528X210</t>
   </si>
   <si>
-    <t>C6</t>
-  </si>
-  <si>
     <t>Resistors</t>
   </si>
   <si>
@@ -174,6 +168,9 @@
   </si>
   <si>
     <t>R1,R2,R16,R17,R5,R6,R7,R8,R15</t>
+  </si>
+  <si>
+    <t>C3,C5,C6</t>
   </si>
 </sst>
 </file>
@@ -438,13 +435,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -493,13 +490,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -810,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,13 +861,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>8</v>
@@ -884,146 +881,155 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="9">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9">
-        <v>4</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="9">
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>25</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="16"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="9">
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="16"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="9">
+        <v>29</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="19"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="E11" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
@@ -1033,20 +1039,20 @@
       <c r="P11" s="19"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="A12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>34</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="18"/>
@@ -1060,19 +1066,19 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="18"/>
@@ -1084,21 +1090,21 @@
       <c r="O13" s="18"/>
       <c r="P13" s="19"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="7">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>42</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="18"/>
@@ -1110,21 +1116,21 @@
       <c r="O14" s="18"/>
       <c r="P14" s="19"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="9">
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="5">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>45</v>
+      <c r="E15" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="18"/>
@@ -1136,22 +1142,12 @@
       <c r="O15" s="18"/>
       <c r="P15" s="19"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>48</v>
-      </c>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="H16" s="17"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -1163,11 +1159,6 @@
       <c r="P16" s="19"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
       <c r="H17" s="17"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
@@ -1244,7 +1235,7 @@
       <c r="O23" s="18"/>
       <c r="P23" s="19"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H24" s="17"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -1255,7 +1246,14 @@
       <c r="O24" s="18"/>
       <c r="P24" s="19"/>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
       <c r="H25" s="17"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -1267,13 +1265,11 @@
       <c r="P25" s="19"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
       <c r="H26" s="17"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
@@ -1364,137 +1360,128 @@
       <c r="O31" s="18"/>
       <c r="P31" s="19"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
       <c r="E32" s="19"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="19"/>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="20"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="19"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="22"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="E34" s="19"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="19"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
       <c r="E36" s="19"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="19"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
       <c r="E38" s="19"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="19"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
       <c r="E40" s="19"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="19"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="19"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
       <c r="E43" s="19"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
       <c r="E44" s="19"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
       <c r="E45" s="19"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
       <c r="E46" s="19"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
       <c r="E47" s="19"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -1515,19 +1502,12 @@
       <c r="D50" s="18"/>
       <c r="E50" s="19"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="19"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="22"/>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
